--- a/trunk/Document/Test Case/ThinhND_Stadium Staff.xlsx
+++ b/trunk/Document/Test Case/ThinhND_Stadium Staff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Capstone Project\football-pitches-booking\Material\ThinhND\ThinhND_Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Capstone Project\football-pitches-booking\Document\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3505,7 +3505,7 @@
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
     </row>
-    <row r="16" spans="1:10" ht="127.5">
+    <row r="16" spans="1:10" ht="102">
       <c r="A16" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[FieldManagement-6]</v>
@@ -3542,7 +3542,7 @@
       <c r="H17" s="89"/>
       <c r="I17" s="90"/>
     </row>
-    <row r="18" spans="1:10" ht="89.25">
+    <row r="18" spans="1:10" ht="76.5">
       <c r="A18" s="91" t="str">
         <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-7]</v>
@@ -3566,7 +3566,7 @@
       <c r="H18" s="93"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="1:10" ht="114.75">
+    <row r="19" spans="1:10" ht="89.25">
       <c r="A19" s="91" t="str">
         <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-8]</v>
@@ -3590,7 +3590,7 @@
       <c r="H19" s="93"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="114.75">
+    <row r="20" spans="1:10" ht="89.25">
       <c r="A20" s="91" t="str">
         <f t="shared" ref="A20:A22" si="1">IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-9]</v>
@@ -3614,7 +3614,7 @@
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:10" ht="102">
+    <row r="21" spans="1:10" ht="76.5">
       <c r="A21" s="91" t="str">
         <f t="shared" ref="A21" si="2">IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-10]</v>
@@ -3639,7 +3639,7 @@
       <c r="I21" s="8"/>
       <c r="J21" s="94"/>
     </row>
-    <row r="22" spans="1:10" ht="89.25">
+    <row r="22" spans="1:10" ht="76.5">
       <c r="A22" s="91" t="str">
         <f t="shared" si="1"/>
         <v>[FieldManagement-11]</v>
@@ -3664,7 +3664,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="94"/>
     </row>
-    <row r="23" spans="1:10" ht="89.25">
+    <row r="23" spans="1:10" ht="76.5">
       <c r="A23" s="91" t="str">
         <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-12]</v>
@@ -3688,7 +3688,7 @@
       <c r="H23" s="93"/>
       <c r="I23" s="94"/>
     </row>
-    <row r="24" spans="1:10" ht="102">
+    <row r="24" spans="1:10" ht="89.25">
       <c r="A24" s="91" t="str">
         <f t="shared" ref="A24:A25" si="3">IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-13]</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H24" s="93"/>
     </row>
-    <row r="25" spans="1:10" ht="102">
+    <row r="25" spans="1:10" ht="89.25">
       <c r="A25" s="91" t="str">
         <f t="shared" si="3"/>
         <v>[FieldManagement-14]</v>
@@ -3994,7 +3994,7 @@
       <c r="H11" s="93"/>
       <c r="I11" s="94"/>
     </row>
-    <row r="12" spans="1:11" ht="153">
+    <row r="12" spans="1:11" ht="114.75">
       <c r="A12" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[StadiumManagement-3]</v>
@@ -4059,7 +4059,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4373,7 +4373,7 @@
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
     </row>
-    <row r="16" spans="1:10" ht="191.25">
+    <row r="16" spans="1:10" ht="140.25">
       <c r="A16" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-6]</v>
@@ -4410,7 +4410,7 @@
       <c r="H17" s="89"/>
       <c r="I17" s="90"/>
     </row>
-    <row r="18" spans="1:9" ht="89.25">
+    <row r="18" spans="1:9" ht="63.75">
       <c r="A18" s="91" t="str">
         <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-7]</v>
@@ -4434,7 +4434,7 @@
       <c r="H18" s="93"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="1:9" ht="114.75">
+    <row r="19" spans="1:9" ht="89.25">
       <c r="A19" s="91" t="str">
         <f t="shared" ref="A19" si="1">IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-8]</v>
@@ -4458,7 +4458,7 @@
       <c r="H19" s="93"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="140.25">
+    <row r="20" spans="1:9" ht="114.75">
       <c r="A20" s="91" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-9]</v>
@@ -4482,7 +4482,7 @@
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:9" ht="114.75">
+    <row r="21" spans="1:9" ht="89.25">
       <c r="A21" s="91" t="str">
         <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-10]</v>
@@ -4506,7 +4506,7 @@
       <c r="H21" s="93"/>
       <c r="I21" s="94"/>
     </row>
-    <row r="22" spans="1:9" ht="191.25">
+    <row r="22" spans="1:9" ht="153">
       <c r="A22" s="91" t="str">
         <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-11]</v>
@@ -4530,7 +4530,7 @@
       <c r="H22" s="137"/>
       <c r="I22" s="94"/>
     </row>
-    <row r="23" spans="1:9" ht="102">
+    <row r="23" spans="1:9" ht="76.5">
       <c r="A23" s="91" t="str">
         <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
         <v>[PromotionManagement-11]</v>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H23" s="93"/>
     </row>
-    <row r="24" spans="1:9" ht="102">
+    <row r="24" spans="1:9" ht="76.5">
       <c r="A24" s="91" t="str">
         <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
         <v>[PromotionManagement-11]</v>
@@ -4606,8 +4606,8 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4625,7 +4625,7 @@
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" hidden="1" thickBot="1">
+    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="65"/>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -4636,7 +4636,7 @@
       <c r="H1" s="43"/>
       <c r="I1" s="69"/>
     </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="I4" s="69"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="75" t="s">
         <v>33</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="80">
         <f>COUNTIF(F10:F1010,"Pass")</f>
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="D7" s="83"/>
       <c r="E7" s="83"/>
       <c r="F7" s="78"/>

--- a/trunk/Document/Test Case/ThinhND_Stadium Staff.xlsx
+++ b/trunk/Document/Test Case/ThinhND_Stadium Staff.xlsx
@@ -21,9 +21,9 @@
     <sheet name="Test Report" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Field Management'!$A$8:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Promotion Management'!$A$8:$H$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Reservation Management'!$A$8:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Field Management'!$A$8:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Promotion Management'!$A$8:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Reservation Management'!$A$8:$H$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Stadium Management'!$A$8:$H$12</definedName>
     <definedName name="ACTION" localSheetId="5">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="230">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -422,12 +422,6 @@
 2. Click "Quản lý sân bóng" tab in the menu.</t>
   </si>
   <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Click "Lưu" button</t>
-  </si>
-  <si>
     <t>Error message will be displayed:
 - "Xin vui lòng nhập các thông tin bắt buộc".</t>
   </si>
@@ -451,13 +445,6 @@
   </si>
   <si>
     <t>Test updating stadium profile with blank fields</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Chỉnh sửa thông tin" button
-4. Blank all fields
-5. Click "Lưu" button</t>
   </si>
   <si>
     <t>Test updating stadium profile with wrong email format</t>
@@ -529,12 +516,6 @@
 - "Số sân không chính xác, vui lòng nhập lại số sân".</t>
   </si>
   <si>
-    <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý khuyến mãi" page
-3. Click "Thêm khuyến mãi" button
-4. Click "Lưu" button</t>
-  </si>
-  <si>
     <t>Test creating a promotion with "Thời gian kết thúc" is over</t>
   </si>
   <si>
@@ -635,20 +616,7 @@
     <t>Test creating a reservation with blank fields</t>
   </si>
   <si>
-    <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý đơn hàng" page
-3. Click "Thêm đơn hàng" button
-4. Click "Lưu" button</t>
-  </si>
-  <si>
     <t>Create Reservation</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Sửa" link on row have "Số sân" is "2"
-4. Blank all fields
-5. Click "Lưu" button</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Owner
@@ -728,10 +696,6 @@
 3. Click "Sửa" link on row have "Số sân" is "2"
 4. Change value to "2" in "Sân mẹ" field
 5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>Error message will be displayed:
-- "Sân mẹ không được trùng với sân con, xin vui lòng chọn lại sân mẹ".</t>
   </si>
   <si>
     <t>Test deactivating a field</t>
@@ -832,13 +796,6 @@
 3. Click "Sửa" link on a row
 4. Change information
 - Change value to "06/03/2014" in "Thời gian kết thúc" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý khuyến mãi" page
-3. Click "Sửa" link on a row
-4. Blank all fields
 5. Click "Lưu" button</t>
   </si>
   <si>
@@ -1116,13 +1073,6 @@
     <t>1. Login the system as Stadium Staff
 2. Go to "Quản lý đơn hàng" page
 3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
-4. Blank all fields
-4. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý đơn hàng" page
-3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
 4. Input require information
 - Input "abc123" into "Khách hàng" field
 5. Click "Lưu" button</t>
@@ -1226,6 +1176,171 @@
   </si>
   <si>
     <t>Reload "Quản lý đơn hàng" page with "Tình trạng hoạt động" in that row is "Ngừng hoạt động"</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Sân mẹ không chính xác, xin vui lòng nhập lại".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Select "1" in "Sân mẹ" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. All fields are blank
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
+4. All fields are blank
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. All fields are blank
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test cancel creating action</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page</t>
+  </si>
+  <si>
+    <t>Test cancel updating action</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Click "Reset" button
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test blank all fields in creating form</t>
+  </si>
+  <si>
+    <t>Blank all fields in this form</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Chỉnh sửa thông tin" button
+4. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
+4. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý khuyến mãi" page</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+5. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý đơn hàng" page</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input "08/03/2014" into "Thời gian bắt đầu" field
+- Input "30/03/2014" into "Thời gian kết thúc" field
+- Input "10" into "Giảm giá (%)" field
+5. Click "Nhập lại" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "2" into "Số sân" field
+- Select "1" in "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Nhập lại" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Click "Nhập lại" button
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Chỉnh sửa thông tin" button
+4. Click "Nhập lại" button
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef@ghi.jk" into "Email" field
+- Input "16/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Check "Đối thủ" checkbox
+- Input rival information
++ Input "thinhnd" into "Đối thủ" field
++ Input "ABC123" into "Tên đầy đủ" field
++ Input "123456789" into "Số điện thoại" field
++ Input "abc123@def.ghi" into "Email" field
+5. Click "Nhập lại" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Click "Huỷ" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Click "Nhập lại" button
+5. Click "Lưu" button</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1724,15 +1839,6 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1892,7 +1998,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2160,9 +2266,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2184,8 +2287,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2197,31 +2300,31 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2274,16 +2377,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2758,13 +2861,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="138" t="s">
+      <c r="C2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2775,11 +2878,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2789,36 +2892,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="141" t="str">
+      <c r="C6" s="140" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2975,39 +3078,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145" t="str">
+      <c r="C3" s="143"/>
+      <c r="D3" s="144" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145" t="str">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -3047,7 +3150,7 @@
       <c r="C9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="132" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="56"/>
@@ -3060,7 +3163,7 @@
       <c r="C10" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="132" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="56"/>
@@ -3188,11 +3291,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3225,13 +3328,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="146" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3243,13 +3346,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3261,11 +3364,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3284,10 +3387,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3297,26 +3400,26 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F999,"Pass")</f>
+        <f>COUNTIF(F10:F1002,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F999,"Fail")</f>
+        <f>COUNTIF(F10:F1002,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
         <f>E6-D6-B6-A6</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$999,"N/A")</f>
+        <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="146">
-        <f>COUNTA(A10:A999)</f>
-        <v>14</v>
-      </c>
-      <c r="F6" s="146"/>
+      <c r="E6" s="145">
+        <f>COUNTA(A10:A1002)</f>
+        <v>17</v>
+      </c>
+      <c r="F6" s="145"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3378,19 +3481,19 @@
         <v>[FieldManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="91" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="133">
         <v>41705</v>
       </c>
       <c r="H10" s="93"/>
@@ -3411,319 +3514,320 @@
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1">
       <c r="A12" s="91" t="str">
-        <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A15" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[FieldManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="133">
         <v>41705</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="94"/>
     </row>
-    <row r="13" spans="1:10" ht="130.5" customHeight="1">
+    <row r="13" spans="1:10" ht="111.75" customHeight="1">
       <c r="A13" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[FieldManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="133">
         <v>41705</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="94"/>
     </row>
-    <row r="14" spans="1:10" ht="141.75" customHeight="1">
+    <row r="14" spans="1:10" ht="117" customHeight="1">
       <c r="A14" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[FieldManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="133">
         <v>41705</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
     </row>
-    <row r="15" spans="1:10" ht="132.75" customHeight="1">
+    <row r="15" spans="1:10" ht="114.75" customHeight="1">
       <c r="A15" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[FieldManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="133">
         <v>41705</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
     </row>
-    <row r="16" spans="1:10" ht="102">
+    <row r="16" spans="1:10" ht="107.25" customHeight="1">
       <c r="A16" s="91" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B16&lt;&gt;"",D16&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[FieldManagement-6]</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="135">
+      <c r="G16" s="134">
         <v>41705</v>
       </c>
       <c r="H16" s="97"/>
       <c r="I16" s="98"/>
     </row>
-    <row r="17" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:10" ht="76.5">
+    <row r="17" spans="1:10" ht="107.25" customHeight="1">
+      <c r="A17" s="91" t="str">
+        <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[FieldManagement-7]</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:10" ht="63" customHeight="1">
       <c r="A18" s="91" t="str">
-        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-7]</v>
+        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[FieldManagement-8]</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="E18" s="91"/>
       <c r="F18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:10" ht="89.25">
-      <c r="A19" s="91" t="str">
-        <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-8]</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:10" ht="89.25">
+      <c r="G18" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98"/>
+    </row>
+    <row r="19" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:10" ht="76.5">
       <c r="A20" s="91" t="str">
-        <f t="shared" ref="A20:A22" si="1">IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-9]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="134">
+      <c r="G20" s="133">
         <v>41705</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:10" ht="76.5">
+    <row r="21" spans="1:10" ht="89.25">
       <c r="A21" s="91" t="str">
-        <f t="shared" ref="A21" si="2">IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-10]</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="134">
+      <c r="G21" s="133">
         <v>41705</v>
       </c>
       <c r="H21" s="93"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="94"/>
-    </row>
-    <row r="22" spans="1:10" ht="76.5">
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:10" ht="89.25">
       <c r="A22" s="91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A22:A24" si="1">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-11]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="133">
         <v>41705</v>
       </c>
       <c r="H22" s="93"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="94"/>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="76.5">
       <c r="A23" s="91" t="str">
-        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" ref="A23" si="2">IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-12]</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="135">
+      <c r="G23" s="133">
         <v>41705</v>
       </c>
       <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:10" ht="89.25">
+      <c r="I23" s="8"/>
+      <c r="J23" s="94"/>
+    </row>
+    <row r="24" spans="1:10" ht="76.5">
       <c r="A24" s="91" t="str">
-        <f t="shared" ref="A24:A25" si="3">IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" si="1"/>
         <v>[FieldManagement-13]</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="134">
+      <c r="G24" s="133">
         <v>41705</v>
       </c>
       <c r="H24" s="93"/>
-    </row>
-    <row r="25" spans="1:10" ht="89.25">
+      <c r="I24" s="8"/>
+      <c r="J24" s="94"/>
+    </row>
+    <row r="25" spans="1:10" ht="76.5">
       <c r="A25" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-14]</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="91" t="s">
@@ -3733,9 +3837,80 @@
         <v>41705</v>
       </c>
       <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="1:10" ht="63" customHeight="1">
+      <c r="A26" s="91" t="str">
+        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-15]</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H26" s="97"/>
+      <c r="I26" s="98"/>
+    </row>
+    <row r="27" spans="1:10" ht="89.25">
+      <c r="A27" s="91" t="str">
+        <f t="shared" ref="A27:A28" si="3">IF(OR(B27&lt;&gt;"",D27&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-16]</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:10" ht="89.25">
+      <c r="A28" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[FieldManagement-17]</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H28" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H17"/>
+  <autoFilter ref="A8:H19"/>
   <mergeCells count="5">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
@@ -3745,7 +3920,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 E21:E22 F7:F20 F23:F146">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 E23:E24 F25:F149 F7:F22">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3765,8 +3940,8 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3799,13 +3974,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3817,13 +3992,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3835,11 +4010,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3858,10 +4033,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3880,17 +4055,17 @@
       </c>
       <c r="C6" s="81">
         <f>E6-D6-B6-A6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="82">
         <f>COUNTIF(F$10:F$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="146">
+      <c r="E6" s="145">
         <f>COUNTA(A10:A995)</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="146"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="145"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3936,7 +4111,7 @@
     <row r="9" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -3952,19 +4127,19 @@
         <v>[StadiumManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="133">
         <v>41705</v>
       </c>
       <c r="H10" s="93"/>
@@ -3976,19 +4151,19 @@
         <v>[StadiumManagement-2]</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="133">
         <v>41705</v>
       </c>
       <c r="H11" s="93"/>
@@ -4000,32 +4175,52 @@
         <v>[StadiumManagement-3]</v>
       </c>
       <c r="B12" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="91" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>79</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="133">
         <v>41705</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="94"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="F13" s="100"/>
+    <row r="13" spans="1:11" ht="51">
+      <c r="A13" s="91" t="str">
+        <f t="shared" ref="A13" si="1">IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[StadiumManagement-4]</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H13" s="93"/>
       <c r="I13" s="90"/>
       <c r="J13" s="70"/>
       <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="F14" s="101"/>
+      <c r="F14" s="100"/>
       <c r="I14" s="94"/>
     </row>
   </sheetData>
@@ -4056,11 +4251,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4093,13 +4288,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4111,13 +4306,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -4129,11 +4324,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -4152,10 +4347,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -4165,26 +4360,26 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F998,"Pass")</f>
+        <f>COUNTIF(F10:F1001,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F998,"Fail")</f>
+        <f>COUNTIF(F10:F1001,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
         <f>E6-D6-B6-A6</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$998,"N/A")</f>
+        <f>COUNTIF(F$10:F$1001,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="146">
-        <f>COUNTA(A10:A998)</f>
-        <v>13</v>
-      </c>
-      <c r="F6" s="146"/>
+      <c r="E6" s="145">
+        <f>COUNTA(A10:A1001)</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="145"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -4230,7 +4425,7 @@
     <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -4246,19 +4441,19 @@
         <v>[PromotionManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="96" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="133">
         <v>41705</v>
       </c>
       <c r="H10" s="93"/>
@@ -4267,7 +4462,7 @@
     <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="88"/>
       <c r="B11" s="87" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -4279,23 +4474,23 @@
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1">
       <c r="A12" s="91" t="str">
-        <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A18" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[PromotionManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="133">
         <v>41705</v>
       </c>
       <c r="H12" s="93"/>
@@ -4307,19 +4502,19 @@
         <v>[PromotionManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="133">
         <v>41705</v>
       </c>
       <c r="H13" s="93"/>
@@ -4331,152 +4526,152 @@
         <v>[PromotionManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="133">
         <v>41705</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
     </row>
-    <row r="15" spans="1:10" ht="177.75" customHeight="1">
+    <row r="15" spans="1:10" ht="149.25" customHeight="1">
       <c r="A15" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="133">
         <v>41705</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
     </row>
-    <row r="16" spans="1:10" ht="140.25">
+    <row r="16" spans="1:10" ht="153" customHeight="1">
       <c r="A16" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-6]</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="136">
-        <v>41705</v>
-      </c>
-      <c r="H16" s="137"/>
-      <c r="I16" s="98"/>
-    </row>
-    <row r="17" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-    </row>
-    <row r="18" spans="1:9" ht="63.75">
+      <c r="G16" s="135">
+        <v>41705</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="1:9" ht="140.25">
+      <c r="A17" s="91" t="str">
+        <f t="shared" ref="A17" si="1">IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-7]</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="135">
+        <v>41705</v>
+      </c>
+      <c r="H17" s="136"/>
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" s="91" t="str">
-        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-7]</v>
+        <f t="shared" si="0"/>
+        <v>[PromotionManagement-8]</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="E18" s="91"/>
       <c r="F18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:9" ht="89.25">
-      <c r="A19" s="91" t="str">
-        <f t="shared" ref="A19" si="1">IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-8]</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:9" ht="114.75">
+      <c r="G18" s="135">
+        <v>41705</v>
+      </c>
+      <c r="H18" s="136"/>
+      <c r="I18" s="98"/>
+    </row>
+    <row r="19" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:9" ht="63.75">
       <c r="A20" s="91" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-9]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="134">
+      <c r="G20" s="133">
         <v>41705</v>
       </c>
       <c r="H20" s="93"/>
@@ -4484,100 +4679,172 @@
     </row>
     <row r="21" spans="1:9" ht="89.25">
       <c r="A21" s="91" t="str">
-        <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" ref="A21" si="2">IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-10]</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="134">
+      <c r="G21" s="133">
         <v>41705</v>
       </c>
       <c r="H21" s="93"/>
       <c r="I21" s="94"/>
     </row>
-    <row r="22" spans="1:9" ht="153">
+    <row r="22" spans="1:9" ht="114.75">
       <c r="A22" s="91" t="str">
         <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-11]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="136">
-        <v>41705</v>
-      </c>
-      <c r="H22" s="137"/>
+      <c r="G22" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H22" s="93"/>
       <c r="I22" s="94"/>
     </row>
-    <row r="23" spans="1:9" ht="76.5">
+    <row r="23" spans="1:9" ht="89.25">
       <c r="A23" s="91" t="str">
-        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-11]</v>
+        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-12]</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="134">
+      <c r="G23" s="133">
         <v>41705</v>
       </c>
       <c r="H23" s="93"/>
-    </row>
-    <row r="24" spans="1:9" ht="76.5">
+      <c r="I23" s="94"/>
+    </row>
+    <row r="24" spans="1:9" ht="153">
       <c r="A24" s="91" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-11]</v>
+        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-13]</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H24" s="93"/>
+      <c r="G24" s="135">
+        <v>41705</v>
+      </c>
+      <c r="H24" s="136"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="1:9" ht="51">
+      <c r="A25" s="91" t="str">
+        <f>IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-14]</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="135">
+        <v>41705</v>
+      </c>
+      <c r="H25" s="136"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="1:9" ht="76.5">
+      <c r="A26" s="91" t="str">
+        <f t="shared" ref="A26:A27" si="3">IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-15]</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:9" ht="76.5">
+      <c r="A27" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[PromotionManagement-16]</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H27" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H17"/>
+  <autoFilter ref="A8:H19"/>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -4586,7 +4853,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F145">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F148">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4603,11 +4870,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="8" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4640,13 +4907,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="147" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4658,13 +4925,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -4676,11 +4943,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -4699,10 +4966,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -4712,26 +4979,26 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F1010,"Pass")</f>
+        <f>COUNTIF(F10:F1013,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F1010,"Fail")</f>
+        <f>COUNTIF(F10:F1013,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
         <f>E6-D6-B6-A6</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$1010,"N/A")</f>
+        <f>COUNTIF(F$10:F$1013,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="146">
-        <f>COUNTA(A10:A1010)</f>
-        <v>23</v>
-      </c>
-      <c r="F6" s="146"/>
+      <c r="E6" s="145">
+        <f>COUNTA(A10:A1013)</f>
+        <v>26</v>
+      </c>
+      <c r="F6" s="145"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -4777,7 +5044,7 @@
     <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="87" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -4793,19 +5060,19 @@
         <v>[ReservationManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="133">
         <v>41705</v>
       </c>
       <c r="H10" s="93"/>
@@ -4814,7 +5081,7 @@
     <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="88"/>
       <c r="B11" s="87" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -4830,19 +5097,19 @@
         <v>[ReservationManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="133">
         <v>41705</v>
       </c>
       <c r="H12" s="93"/>
@@ -4854,19 +5121,19 @@
         <v>[ReservationManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="133">
         <v>41705</v>
       </c>
       <c r="H13" s="93"/>
@@ -4878,19 +5145,19 @@
         <v>[ReservationManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="134">
+      <c r="G14" s="133">
         <v>41705</v>
       </c>
       <c r="H14" s="93"/>
@@ -4902,19 +5169,19 @@
         <v>[ReservationManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="134">
+      <c r="G15" s="133">
         <v>41705</v>
       </c>
       <c r="H15" s="93"/>
@@ -4926,19 +5193,19 @@
         <v>[ReservationManagement-6]</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="134">
+      <c r="G16" s="133">
         <v>41705</v>
       </c>
       <c r="H16" s="93"/>
@@ -4950,19 +5217,19 @@
         <v>[ReservationManagement-7]</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="133">
         <v>41705</v>
       </c>
       <c r="H17" s="93"/>
@@ -4970,24 +5237,24 @@
     </row>
     <row r="18" spans="1:9" ht="200.25" customHeight="1">
       <c r="A18" s="91" t="str">
-        <f t="shared" ref="A18:A21" si="2">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A18:A23" si="2">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[ReservationManagement-8]</v>
       </c>
       <c r="B18" s="91" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E18" s="91"/>
       <c r="F18" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="134">
-        <v>41706</v>
+      <c r="G18" s="133">
+        <v>41705</v>
       </c>
       <c r="H18" s="93"/>
       <c r="I18" s="94"/>
@@ -4998,19 +5265,19 @@
         <v>[ReservationManagement-9]</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="134">
+      <c r="G19" s="133">
         <v>41705</v>
       </c>
       <c r="H19" s="93"/>
@@ -5022,19 +5289,19 @@
         <v>[ReservationManagement-10]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="134">
+      <c r="G20" s="133">
         <v>41705</v>
       </c>
       <c r="H20" s="93"/>
@@ -5046,152 +5313,152 @@
         <v>[ReservationManagement-11]</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="134">
-        <v>41707</v>
+      <c r="G21" s="133">
+        <v>41705</v>
       </c>
       <c r="H21" s="93"/>
       <c r="I21" s="98"/>
     </row>
-    <row r="22" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="87"/>
-      <c r="B22" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
-    </row>
-    <row r="23" spans="1:9" ht="76.5">
+    <row r="22" spans="1:9" ht="280.5">
+      <c r="A22" s="91" t="str">
+        <f t="shared" ref="A22" si="3">IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-12]</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H22" s="93"/>
+      <c r="I22" s="98"/>
+    </row>
+    <row r="23" spans="1:9" ht="51">
       <c r="A23" s="91" t="str">
-        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[ReservationManagement-12]</v>
+        <f t="shared" si="2"/>
+        <v>[ReservationManagement-13]</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="134">
+      <c r="G23" s="133">
         <v>41705</v>
       </c>
       <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
-    </row>
-    <row r="24" spans="1:9" ht="89.25">
-      <c r="A24" s="91" t="str">
-        <f t="shared" ref="A24:A32" si="3">IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[ReservationManagement-13]</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="1:9" ht="89.25">
+      <c r="I23" s="98"/>
+    </row>
+    <row r="24" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
+    </row>
+    <row r="25" spans="1:9" ht="76.5">
       <c r="A25" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B25&lt;&gt;"",D25&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[ReservationManagement-14]</v>
       </c>
       <c r="B25" s="91" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="134">
+      <c r="G25" s="133">
         <v>41705</v>
       </c>
       <c r="H25" s="93"/>
       <c r="I25" s="94"/>
     </row>
-    <row r="26" spans="1:9" ht="102">
+    <row r="26" spans="1:9" ht="89.25">
       <c r="A26" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A26:A35" si="4">IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[ReservationManagement-15]</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E26" s="91"/>
       <c r="F26" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="134">
+      <c r="G26" s="133">
         <v>41705</v>
       </c>
       <c r="H26" s="93"/>
       <c r="I26" s="94"/>
     </row>
-    <row r="27" spans="1:9" ht="127.5">
+    <row r="27" spans="1:9" ht="89.25">
       <c r="A27" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[ReservationManagement-16]</v>
       </c>
       <c r="B27" s="91" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="E27" s="91"/>
       <c r="F27" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="134">
+      <c r="G27" s="133">
         <v>41705</v>
       </c>
       <c r="H27" s="93"/>
@@ -5199,95 +5466,95 @@
     </row>
     <row r="28" spans="1:9" ht="102">
       <c r="A28" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[ReservationManagement-17]</v>
       </c>
       <c r="B28" s="91" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="134">
+      <c r="G28" s="133">
         <v>41705</v>
       </c>
       <c r="H28" s="93"/>
       <c r="I28" s="94"/>
     </row>
-    <row r="29" spans="1:9" ht="114.75">
+    <row r="29" spans="1:9" ht="127.5">
       <c r="A29" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[ReservationManagement-18]</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C29" s="91" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E29" s="91"/>
       <c r="F29" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="134">
-        <v>41706</v>
+      <c r="G29" s="133">
+        <v>41705</v>
       </c>
       <c r="H29" s="93"/>
       <c r="I29" s="94"/>
     </row>
     <row r="30" spans="1:9" ht="102">
       <c r="A30" s="91" t="str">
-        <f>IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" si="4"/>
         <v>[ReservationManagement-19]</v>
       </c>
       <c r="B30" s="91" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E30" s="91"/>
       <c r="F30" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="134">
+      <c r="G30" s="133">
         <v>41705</v>
       </c>
       <c r="H30" s="93"/>
       <c r="I30" s="94"/>
     </row>
-    <row r="31" spans="1:9" ht="89.25">
+    <row r="31" spans="1:9" ht="114.75">
       <c r="A31" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[ReservationManagement-20]</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C31" s="91" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E31" s="91"/>
       <c r="F31" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="134">
+      <c r="G31" s="133">
         <v>41705</v>
       </c>
       <c r="H31" s="93"/>
@@ -5295,100 +5562,172 @@
     </row>
     <row r="32" spans="1:9" ht="102">
       <c r="A32" s="91" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B32&lt;&gt;"",D32&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[ReservationManagement-21]</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C32" s="91" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E32" s="91"/>
       <c r="F32" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="134">
-        <v>41707</v>
+      <c r="G32" s="133">
+        <v>41705</v>
       </c>
       <c r="H32" s="93"/>
       <c r="I32" s="94"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="89"/>
-    </row>
-    <row r="34" spans="1:8" ht="51">
+    <row r="33" spans="1:9" ht="89.25">
+      <c r="A33" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>[ReservationManagement-22]</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H33" s="93"/>
+      <c r="I33" s="94"/>
+    </row>
+    <row r="34" spans="1:9" ht="102">
       <c r="A34" s="91" t="str">
-        <f>IF(OR(B34&lt;&gt;"",D34&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[ReservationManagement-22]</v>
+        <f t="shared" ref="A34" si="5">IF(OR(B34&lt;&gt;"",D34&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-23]</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C34" s="91" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D34" s="91" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E34" s="91"/>
       <c r="F34" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="134">
+      <c r="G34" s="133">
         <v>41705</v>
       </c>
       <c r="H34" s="93"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-    </row>
-    <row r="36" spans="1:8" ht="51">
-      <c r="A36" s="91" t="str">
-        <f>IF(OR(B36&lt;&gt;"",D36&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[ReservationManagement-23]</v>
-      </c>
-      <c r="B36" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" s="91" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="91" t="s">
+      <c r="I34" s="94"/>
+    </row>
+    <row r="35" spans="1:9" ht="63.75">
+      <c r="A35" s="91" t="str">
+        <f t="shared" si="4"/>
+        <v>[ReservationManagement-24]</v>
+      </c>
+      <c r="B35" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H36" s="93"/>
+      <c r="C35" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H35" s="93"/>
+      <c r="I35" s="94"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
+    </row>
+    <row r="37" spans="1:9" ht="51">
+      <c r="A37" s="91" t="str">
+        <f>IF(OR(B37&lt;&gt;"",D37&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-25]</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H37" s="93"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="87"/>
+      <c r="B38" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="89"/>
+    </row>
+    <row r="39" spans="1:9" ht="51">
+      <c r="A39" s="91" t="str">
+        <f>IF(OR(B39&lt;&gt;"",D39&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-26]</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="133">
+        <v>41705</v>
+      </c>
+      <c r="H39" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H22"/>
+  <autoFilter ref="A8:H24"/>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -5396,8 +5735,8 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F157">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F160">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5431,335 +5770,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="150" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="150" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="145" t="str">
+      <c r="C5" s="144" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="150" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="108" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="107" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="115" t="s">
+      <c r="D10" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="116" t="s">
+      <c r="F10" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="116" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119">
+      <c r="A11" s="117"/>
+      <c r="B11" s="118">
         <v>1</v>
       </c>
-      <c r="C11" s="120" t="str">
+      <c r="C11" s="119" t="str">
         <f>'Field Management'!B2</f>
         <v>FieldManagement</v>
       </c>
-      <c r="D11" s="121">
+      <c r="D11" s="120">
         <f>'Field Management'!A6</f>
         <v>0</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="120">
         <f>'Field Management'!B6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="121">
+      <c r="F11" s="120">
         <f>'Field Management'!C6</f>
-        <v>14</v>
-      </c>
-      <c r="G11" s="122">
+        <v>17</v>
+      </c>
+      <c r="G11" s="121">
         <f>'Field Management'!D6</f>
         <v>0</v>
       </c>
-      <c r="H11" s="123">
+      <c r="H11" s="122">
         <f>'Field Management'!E6</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119">
+      <c r="A12" s="117"/>
+      <c r="B12" s="118">
         <v>2</v>
       </c>
-      <c r="C12" s="120" t="str">
+      <c r="C12" s="119" t="str">
         <f>'Stadium Management'!B2</f>
         <v>StadiumManagement</v>
       </c>
-      <c r="D12" s="121">
+      <c r="D12" s="120">
         <f>'Stadium Management'!A6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="121">
+      <c r="E12" s="120">
         <f>'Stadium Management'!B6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="121">
+      <c r="F12" s="120">
         <f>'Stadium Management'!C6</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="122">
+        <v>4</v>
+      </c>
+      <c r="G12" s="121">
         <f>'Stadium Management'!D6</f>
         <v>0</v>
       </c>
-      <c r="H12" s="123">
+      <c r="H12" s="122">
         <f>'Stadium Management'!E6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="117"/>
+      <c r="B13" s="118">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119">
-        <v>3</v>
-      </c>
-      <c r="C13" s="120" t="str">
+      <c r="C13" s="119" t="str">
         <f>'Promotion Management'!B2</f>
         <v>PromotionManagement</v>
       </c>
-      <c r="D13" s="121">
+      <c r="D13" s="120">
         <f>'Promotion Management'!A6</f>
         <v>0</v>
       </c>
-      <c r="E13" s="121">
+      <c r="E13" s="120">
         <f>'Promotion Management'!B6</f>
         <v>0</v>
       </c>
-      <c r="F13" s="121">
+      <c r="F13" s="120">
         <f>'Promotion Management'!C6</f>
-        <v>13</v>
-      </c>
-      <c r="G13" s="121">
+        <v>16</v>
+      </c>
+      <c r="G13" s="120">
         <f>'Promotion Management'!D6</f>
         <v>0</v>
       </c>
-      <c r="H13" s="123">
+      <c r="H13" s="122">
         <f>'Promotion Management'!E6</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118">
         <v>4</v>
       </c>
-      <c r="C14" s="120" t="str">
+      <c r="C14" s="119" t="str">
         <f>'Reservation Management'!B2</f>
         <v>ReservationManagement</v>
       </c>
-      <c r="D14" s="121">
+      <c r="D14" s="120">
         <f>'Reservation Management'!A6</f>
         <v>0</v>
       </c>
-      <c r="E14" s="121">
+      <c r="E14" s="120">
         <f>'Reservation Management'!B6</f>
         <v>0</v>
       </c>
-      <c r="F14" s="121">
+      <c r="F14" s="120">
         <f>'Reservation Management'!C6</f>
-        <v>23</v>
-      </c>
-      <c r="G14" s="121">
+        <v>26</v>
+      </c>
+      <c r="G14" s="120">
         <f>'Reservation Management'!D6</f>
         <v>0</v>
       </c>
-      <c r="H14" s="123">
+      <c r="H14" s="122">
         <f>'Reservation Management'!E6</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="118"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125" t="s">
+      <c r="A15" s="117"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="125">
         <f>SUM(D9:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="126">
+      <c r="E15" s="125">
         <f>SUM(E9:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="126">
+      <c r="F15" s="125">
         <f>SUM(F9:F14)</f>
-        <v>53</v>
-      </c>
-      <c r="G15" s="126">
+        <v>63</v>
+      </c>
+      <c r="G15" s="125">
         <f>SUM(G9:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="126">
         <f>SUM(H9:H14)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="111"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="131" t="s">
+      <c r="A17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="132">
+      <c r="D17" s="110"/>
+      <c r="E17" s="131">
         <f>(D15+E15)*100/(H15-G15)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="111"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="131" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="132">
+      <c r="D18" s="110"/>
+      <c r="E18" s="131">
         <f>D15*100/(H15-G15)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="111"/>
+      <c r="G18" s="110"/>
       <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="8">
